--- a/html/resources/consent.xlsx
+++ b/html/resources/consent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/canfenerci/Dropbox/My Mac (sheldonmemorylab2s-iMac.local)/Desktop/Fluency Task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09787C9-E8C1-0B40-8D71-01E8C5B4BB5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4032D197-BA2B-0140-A5C3-3D1972BC3ABC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18220" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{99D8F351-01A3-8C4A-B88C-216D7E0B26E9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>CONS</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Consent2.png</t>
+  </si>
+  <si>
+    <t>Consent4.png</t>
   </si>
 </sst>
 </file>
@@ -396,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754DA85F-E50F-A341-996C-6DE2EA12809A}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -424,6 +427,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/html/resources/consent.xlsx
+++ b/html/resources/consent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/canfenerci/Dropbox/My Mac (sheldonmemorylab2s-iMac.local)/Desktop/Fluency Task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4032D197-BA2B-0140-A5C3-3D1972BC3ABC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10057E97-D445-414B-B1CB-4561E311C6CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18220" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{99D8F351-01A3-8C4A-B88C-216D7E0B26E9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>CONS</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Consent2.png</t>
-  </si>
-  <si>
-    <t>Consent4.png</t>
   </si>
 </sst>
 </file>
@@ -399,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754DA85F-E50F-A341-996C-6DE2EA12809A}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -427,11 +424,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
